--- a/Team-Data/2014-15/3-12-2014-15.xlsx
+++ b/Team-Data/2014-15/3-12-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>6.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -756,13 +823,13 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
         <v>3</v>
@@ -780,7 +847,7 @@
         <v>14</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -926,19 +993,19 @@
         <v>-1.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="n">
         <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
@@ -971,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="AS3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
         <v>12</v>
@@ -986,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1156,7 +1223,7 @@
         <v>19</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1326,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>23</v>
@@ -1338,10 +1405,10 @@
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1350,7 +1417,7 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
         <v>21</v>
@@ -1359,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="BA5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1490,7 +1557,7 @@
         <v>22</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
@@ -1532,7 +1599,7 @@
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="n">
         <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.627</v>
+        <v>0.621</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J7" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L7" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M7" t="n">
         <v>26.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.359</v>
+        <v>0.356</v>
       </c>
       <c r="O7" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P7" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R7" t="n">
         <v>11.3</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U7" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V7" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W7" t="n">
         <v>7.4</v>
@@ -1639,16 +1706,16 @@
         <v>4.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.3</v>
+        <v>102.9</v>
       </c>
       <c r="AC7" t="n">
         <v>4.5</v>
@@ -1657,22 +1724,22 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
         <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
         <v>10</v>
@@ -1687,10 +1754,10 @@
         <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
@@ -1699,7 +1766,7 @@
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT7" t="n">
         <v>17</v>
@@ -1723,10 +1790,10 @@
         <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n">
         <v>41</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.631</v>
+        <v>0.621</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,7 +1843,7 @@
         <v>39.3</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.459</v>
@@ -1785,40 +1852,40 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="N8" t="n">
         <v>0.349</v>
       </c>
       <c r="O8" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P8" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V8" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W8" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y8" t="n">
         <v>3.8</v>
@@ -1833,22 +1900,22 @@
         <v>104.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF8" t="n">
         <v>8</v>
       </c>
-      <c r="AF8" t="n">
-        <v>7</v>
-      </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1857,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1869,22 +1936,22 @@
         <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ8" t="n">
         <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1911,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2063,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
@@ -2078,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,19 +2279,19 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>20</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM10" t="n">
         <v>11</v>
@@ -2236,7 +2303,7 @@
         <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
@@ -2269,7 +2336,7 @@
         <v>9</v>
       </c>
       <c r="BA10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2415,19 +2482,19 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -2489,13 +2556,13 @@
         <v>64</v>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>0.656</v>
+        <v>0.672</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,43 +2571,43 @@
         <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="M12" t="n">
         <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.8</v>
       </c>
       <c r="U12" t="n">
         <v>22</v>
       </c>
       <c r="V12" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="W12" t="n">
         <v>9.6</v>
@@ -2549,22 +2616,22 @@
         <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>103</v>
+        <v>103.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>19</v>
@@ -2600,7 +2667,7 @@
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2609,16 +2676,16 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW12" t="n">
         <v>2</v>
@@ -2627,19 +2694,19 @@
         <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="n">
         <v>34</v>
       </c>
       <c r="G13" t="n">
-        <v>0.469</v>
+        <v>0.46</v>
       </c>
       <c r="H13" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L13" t="n">
         <v>7.1</v>
@@ -2698,22 +2765,22 @@
         <v>20.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O13" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P13" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q13" t="n">
         <v>0.764</v>
       </c>
       <c r="R13" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S13" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="T13" t="n">
         <v>45.1</v>
@@ -2722,31 +2789,31 @@
         <v>21.5</v>
       </c>
       <c r="V13" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W13" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X13" t="n">
         <v>4.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.7</v>
+        <v>96.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
         <v>17</v>
@@ -2758,13 +2825,13 @@
         <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
@@ -2773,13 +2840,13 @@
         <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
         <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
@@ -2788,7 +2855,7 @@
         <v>13</v>
       </c>
       <c r="AR13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
@@ -2806,7 +2873,7 @@
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
@@ -2815,13 +2882,13 @@
         <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB13" t="n">
         <v>23</v>
       </c>
       <c r="BC13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>6.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2994,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -3047,40 +3114,40 @@
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86.2</v>
+        <v>86</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N15" t="n">
         <v>0.342</v>
       </c>
       <c r="O15" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="P15" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.745</v>
       </c>
       <c r="R15" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T15" t="n">
-        <v>44.1</v>
+        <v>43.9</v>
       </c>
       <c r="U15" t="n">
         <v>20.9</v>
@@ -3095,22 +3162,22 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,10 +3192,10 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
@@ -3149,16 +3216,16 @@
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT15" t="n">
         <v>11</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>10</v>
       </c>
       <c r="AU15" t="n">
         <v>20</v>
@@ -3173,16 +3240,16 @@
         <v>20</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -3214,61 +3281,61 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="n">
         <v>45</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.703</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
       </c>
       <c r="I16" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J16" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M16" t="n">
         <v>15.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.331</v>
+        <v>0.334</v>
       </c>
       <c r="O16" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P16" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R16" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S16" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T16" t="n">
         <v>42.7</v>
       </c>
       <c r="U16" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V16" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W16" t="n">
         <v>8.699999999999999</v>
@@ -3280,19 +3347,19 @@
         <v>5.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,13 +3374,13 @@
         <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>7</v>
@@ -3343,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
         <v>6</v>
@@ -3358,16 +3425,16 @@
         <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA16" t="n">
         <v>14</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>-2.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
@@ -3486,7 +3553,7 @@
         <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
@@ -3498,7 +3565,7 @@
         <v>12</v>
       </c>
       <c r="AL17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
@@ -3510,10 +3577,10 @@
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3543,7 +3610,7 @@
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" t="n">
         <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
-        <v>0.523</v>
+        <v>0.531</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3596,43 +3663,43 @@
         <v>37.4</v>
       </c>
       <c r="J18" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L18" t="n">
         <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O18" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="P18" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R18" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S18" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T18" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U18" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V18" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="W18" t="n">
         <v>9.6</v>
@@ -3644,19 +3711,19 @@
         <v>4.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3668,19 +3735,19 @@
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
         <v>16</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK18" t="n">
         <v>5</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
@@ -3689,7 +3756,7 @@
         <v>3</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
@@ -3710,7 +3777,7 @@
         <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW18" t="n">
         <v>3</v>
@@ -3719,7 +3786,7 @@
         <v>11</v>
       </c>
       <c r="AY18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ18" t="n">
         <v>25</v>
@@ -3731,7 +3798,7 @@
         <v>21</v>
       </c>
       <c r="BC18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3850,7 +3917,7 @@
         <v>28</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
@@ -3889,7 +3956,7 @@
         <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV19" t="n">
         <v>22</v>
@@ -3904,10 +3971,10 @@
         <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" t="n">
         <v>29</v>
       </c>
       <c r="G20" t="n">
-        <v>0.547</v>
+        <v>0.554</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
@@ -3972,37 +4039,37 @@
         <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O20" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P20" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.772</v>
+        <v>0.766</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
         <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U20" t="n">
         <v>21.8</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W20" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,19 +4078,19 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
         <v>99.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
@@ -4032,40 +4099,40 @@
         <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="n">
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR20" t="n">
         <v>8</v>
       </c>
-      <c r="AR20" t="n">
-        <v>10</v>
-      </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
         <v>16</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
         <v>51</v>
       </c>
       <c r="G21" t="n">
-        <v>0.203</v>
+        <v>0.19</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4142,10 +4209,10 @@
         <v>35.4</v>
       </c>
       <c r="J21" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L21" t="n">
         <v>6.9</v>
@@ -4154,55 +4221,55 @@
         <v>19.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O21" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="P21" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="Q21" t="n">
         <v>0.769</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
         <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U21" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V21" t="n">
         <v>14.3</v>
       </c>
       <c r="W21" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y21" t="n">
         <v>4.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4220,19 +4287,19 @@
         <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
         <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
@@ -4268,7 +4335,7 @@
         <v>7</v>
       </c>
       <c r="AZ21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -4384,25 +4451,25 @@
         <v>2.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF22" t="n">
         <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK22" t="n">
         <v>18</v>
@@ -4417,7 +4484,7 @@
         <v>25</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP22" t="n">
         <v>11</v>
@@ -4450,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -4488,55 +4555,55 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" t="n">
         <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>0.323</v>
+        <v>0.318</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.355</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="P23" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.731</v>
+        <v>0.732</v>
       </c>
       <c r="R23" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U23" t="n">
         <v>20.4</v>
@@ -4545,13 +4612,13 @@
         <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>21.1</v>
@@ -4560,13 +4627,13 @@
         <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.6</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4590,7 +4657,7 @@
         <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4605,13 +4672,13 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
@@ -4623,16 +4690,16 @@
         <v>23</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>20</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4766,7 +4833,7 @@
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
@@ -4784,13 +4851,13 @@
         <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4817,7 +4884,7 @@
         <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4963,10 +5030,10 @@
         <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ25" t="n">
         <v>7</v>
@@ -4990,7 +5057,7 @@
         <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -4999,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB25" t="n">
         <v>3</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -5115,10 +5182,10 @@
         <v>30</v>
       </c>
       <c r="AE26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF26" t="n">
         <v>4</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>3</v>
       </c>
       <c r="AG26" t="n">
         <v>4</v>
@@ -5130,7 +5197,7 @@
         <v>10</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
         <v>19</v>
@@ -5142,10 +5209,10 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP26" t="n">
         <v>27</v>
@@ -5163,7 +5230,7 @@
         <v>2</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
@@ -5181,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -5401,97 +5468,97 @@
         <v>63</v>
       </c>
       <c r="E28" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>0.619</v>
+        <v>0.635</v>
       </c>
       <c r="H28" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O28" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P28" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R28" t="n">
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U28" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="V28" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W28" t="n">
         <v>7.8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
         <v>4.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA28" t="n">
         <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.9</v>
+        <v>101.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG28" t="n">
         <v>7</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>9</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
         <v>14</v>
@@ -5500,28 +5567,28 @@
         <v>9</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
         <v>15</v>
@@ -5536,13 +5603,13 @@
         <v>13</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA28" t="n">
         <v>19</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5670,7 +5737,7 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>9</v>
@@ -5688,13 +5755,13 @@
         <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO29" t="n">
         <v>4</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>3</v>
@@ -5715,10 +5782,10 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5733,7 +5800,7 @@
         <v>4</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -5762,55 +5829,55 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" t="n">
         <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.438</v>
+        <v>0.429</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J30" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K30" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L30" t="n">
         <v>7.2</v>
       </c>
       <c r="M30" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N30" t="n">
         <v>0.343</v>
       </c>
       <c r="O30" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P30" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="R30" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="S30" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T30" t="n">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="U30" t="n">
         <v>20.1</v>
@@ -5822,7 +5889,7 @@
         <v>7.3</v>
       </c>
       <c r="X30" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y30" t="n">
         <v>4.8</v>
@@ -5834,16 +5901,16 @@
         <v>19.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF30" t="n">
         <v>20</v>
@@ -5867,28 +5934,28 @@
         <v>17</v>
       </c>
       <c r="AM30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN30" t="n">
         <v>17</v>
       </c>
       <c r="AO30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR30" t="n">
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
@@ -5897,19 +5964,19 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>15</v>
       </c>
       <c r="AZ30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" t="n">
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.569</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5962,10 +6029,10 @@
         <v>38.4</v>
       </c>
       <c r="J31" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L31" t="n">
         <v>5.9</v>
@@ -5974,16 +6041,16 @@
         <v>16.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O31" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P31" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R31" t="n">
         <v>10.6</v>
@@ -5992,7 +6059,7 @@
         <v>33.6</v>
       </c>
       <c r="T31" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U31" t="n">
         <v>24.1</v>
@@ -6013,16 +6080,16 @@
         <v>21.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6034,10 +6101,10 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ31" t="n">
         <v>20</v>
@@ -6064,10 +6131,10 @@
         <v>19</v>
       </c>
       <c r="AR31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
         <v>9</v>
@@ -6088,16 +6155,16 @@
         <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-12-2014-15</t>
+          <t>2015-03-12</t>
         </is>
       </c>
     </row>
